--- a/biology/Botanique/Forêts_du_parc_naturel_régional_des_Vosges_du_Nord/Forêts_du_parc_naturel_régional_des_Vosges_du_Nord.xlsx
+++ b/biology/Botanique/Forêts_du_parc_naturel_régional_des_Vosges_du_Nord/Forêts_du_parc_naturel_régional_des_Vosges_du_Nord.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>For%C3%AAts_du_parc_naturel_r%C3%A9gional_des_Vosges_du_Nord</t>
+          <t>Forêts_du_parc_naturel_régional_des_Vosges_du_Nord</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Parc naturel régional des Vosges du Nord est situé à cheval sur les départements du Bas-Rhin et de la Moselle. Il se compose de plusieurs milieux forestiers.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>For%C3%AAts_du_parc_naturel_r%C3%A9gional_des_Vosges_du_Nord</t>
+          <t>Forêts_du_parc_naturel_régional_des_Vosges_du_Nord</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Le hêtre</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La hêtre acidiphile constitue la forêt climacique. C’est-à-dire la forêt qui, naturellement, se développe sur le type de sol dominant (grès vosgien) et dans les conditions climatiques de la Réserve de Biosphère Transfrontalière des Vosges du Nord-Pfälzerwald.
 Une espèce végétale de la hêtraie acidiphile est caractéristique. Il s'agit d'une plante de la famille des joncs, la luzule blanchâtre. Elle doit son nom à la couleur de son inflorescence. La luzule a des poils blancs sur la marge de ses feuilles.
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>For%C3%AAts_du_parc_naturel_r%C3%A9gional_des_Vosges_du_Nord</t>
+          <t>Forêts_du_parc_naturel_régional_des_Vosges_du_Nord</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,7 +562,9 @@
           <t>Les chênaies</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les chênaies naturelles se développent dans les cuvettes gréseuses du Pays de Bitche où le sol pauvre est plus sablonneux. Deux types de chêne existent dans la réserve de biosphère transfrontalière : le chêne sessile (Quercus petraea) sur les sols secs et le chêne pédonculé (Quercus robursur) sur les sols humides.
 Les espèces végétales que l'on rencontre le plus fréquemment sont : le sorbier des oiseleurs (Sorbus aucuparia L.), la germandrée scorodoine, le mélampyre des prés (Melanpyrum pratense),la canche flexueuse (une graminée), la fougère aigle, la callune (Calluna vulgaris) ou fausse bruyère ainsi que la myrtille commune (Vaccinium myrtillus).
@@ -563,7 +579,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>For%C3%AAts_du_parc_naturel_r%C3%A9gional_des_Vosges_du_Nord</t>
+          <t>Forêts_du_parc_naturel_régional_des_Vosges_du_Nord</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -581,7 +597,9 @@
           <t>Les aulnaies</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les aulnaies se développent naturellement sur les alluvions en bordure des ruisseaux. En amont des vallées, on trouve des aulnaies sur sphaignes (mousses des lieux très humides et acides) alors que plus en aval on peut rencontrer des aulnaies-frênaies, forêts alluviales.
 Dans ces forêts marécageuses poussent certaines plantes remarquables comme la Calla des marais (Calla palustris), la fougère des marais, la prêle d'hiver (Equisetum hyemale) et de nombreuses espèces de laîches.
@@ -597,7 +615,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>For%C3%AAts_du_parc_naturel_r%C3%A9gional_des_Vosges_du_Nord</t>
+          <t>Forêts_du_parc_naturel_régional_des_Vosges_du_Nord</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -615,7 +633,9 @@
           <t>La pinède sur tourbe</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">La pinède sur tourbe, que l'on trouve uniquement dans le pays de Bitche, est un milieu relictuel de la période post glaciaire. Le pin sylvestre (Pinus sylvestris) y est présent sous forme d'un écotype remarquable appelé pin de Hanau.
 Ce milieu à caractère nettement continental est unique en France. Son aire naturelle se trouve dans les pays de l'Est (Pologne, Biélorussie). Ce milieu correspond au stade d'évolution terminal des tourbières à sphaignes (Sphagnum sp.).
@@ -632,7 +652,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>For%C3%AAts_du_parc_naturel_r%C3%A9gional_des_Vosges_du_Nord</t>
+          <t>Forêts_du_parc_naturel_régional_des_Vosges_du_Nord</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -650,7 +670,9 @@
           <t>Autres milieux forestiers</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">De manière beaucoup plus ponctuelle, on rencontre des forêts de ravin (frênaie-érablaie) à la base de certaines barres rocheuses de conglomérat. Par ailleurs, dans l'extrême sud des Vosges du Nord, le sapin pectiné (Abies alba) accompagne le hêtre. Il atteint là sa limite septentrionale de répartition vosgienne.
 Depuis plusieurs siècles, l'homme a modifié les forêts naturelles en privilégiant la culture de certaines espèces (le pin sylvestre (Pinus silvestris) par exemple) et en introduisant des espèces exotiques. Certaines sont européennes : l'épicéa (Picea abies), le mélèze d'Europe (Larix decidua), d'autres nord-américaines : le sapin Douglas (Pseudotsuga menziesii), le pin Weymouth (Pinus strobus) et le chêne rouge. L'homme a fortement enrésiné les forêts de la Réserve Transfrontalière, initialement feuillues.
